--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cxcl10-Ccr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cxcl10-Ccr3.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>29.069596</v>
+        <v>21.678587</v>
       </c>
       <c r="H2">
-        <v>87.20878800000001</v>
+        <v>65.03576100000001</v>
       </c>
       <c r="I2">
-        <v>0.1336020129980618</v>
+        <v>0.0772399443186744</v>
       </c>
       <c r="J2">
-        <v>0.1336020129980618</v>
+        <v>0.07723994431867441</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,28 +558,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.2826406666666667</v>
+        <v>0.08962966666666666</v>
       </c>
       <c r="N2">
-        <v>0.8479220000000001</v>
+        <v>0.268889</v>
       </c>
       <c r="O2">
-        <v>0.4644379263787216</v>
+        <v>0.4339761198462219</v>
       </c>
       <c r="P2">
-        <v>0.4644379263787216</v>
+        <v>0.4339761198462219</v>
       </c>
       <c r="Q2">
-        <v>8.216249993170669</v>
+        <v>1.943044526614334</v>
       </c>
       <c r="R2">
-        <v>73.94624993853601</v>
+        <v>17.487400739529</v>
       </c>
       <c r="S2">
-        <v>0.06204984187684281</v>
+        <v>0.03352029133255655</v>
       </c>
       <c r="T2">
-        <v>0.06204984187684281</v>
+        <v>0.03352029133255655</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>29.069596</v>
+        <v>21.678587</v>
       </c>
       <c r="H3">
-        <v>87.20878800000001</v>
+        <v>65.03576100000001</v>
       </c>
       <c r="I3">
-        <v>0.1336020129980618</v>
+        <v>0.0772399443186744</v>
       </c>
       <c r="J3">
-        <v>0.1336020129980618</v>
+        <v>0.07723994431867441</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,28 +620,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.3259243333333333</v>
+        <v>0.1169016666666667</v>
       </c>
       <c r="N3">
-        <v>0.977773</v>
+        <v>0.350705</v>
       </c>
       <c r="O3">
-        <v>0.5355620736212784</v>
+        <v>0.5660238801537781</v>
       </c>
       <c r="P3">
-        <v>0.5355620736212785</v>
+        <v>0.5660238801537781</v>
       </c>
       <c r="Q3">
-        <v>9.474488696569335</v>
+        <v>2.534262951278334</v>
       </c>
       <c r="R3">
-        <v>85.27039826912402</v>
+        <v>22.808366561505</v>
       </c>
       <c r="S3">
-        <v>0.07155217112121895</v>
+        <v>0.04371965298611785</v>
       </c>
       <c r="T3">
-        <v>0.07155217112121896</v>
+        <v>0.04371965298611786</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,10 +670,10 @@
         <v>393.844338</v>
       </c>
       <c r="I4">
-        <v>0.6033611700312704</v>
+        <v>0.4677505770609061</v>
       </c>
       <c r="J4">
-        <v>0.6033611700312705</v>
+        <v>0.4677505770609062</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +682,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.2826406666666667</v>
+        <v>0.08962966666666666</v>
       </c>
       <c r="N4">
-        <v>0.8479220000000001</v>
+        <v>0.268889</v>
       </c>
       <c r="O4">
-        <v>0.4644379263787216</v>
+        <v>0.4339761198462219</v>
       </c>
       <c r="P4">
-        <v>0.4644379263787216</v>
+        <v>0.4339761198462219</v>
       </c>
       <c r="Q4">
-        <v>37.105475418404</v>
+        <v>11.766712244498</v>
       </c>
       <c r="R4">
-        <v>333.949278765636</v>
+        <v>105.900410200482</v>
       </c>
       <c r="S4">
-        <v>0.2802238106667625</v>
+        <v>0.2029925804887232</v>
       </c>
       <c r="T4">
-        <v>0.2802238106667626</v>
+        <v>0.2029925804887233</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>393.844338</v>
       </c>
       <c r="I5">
-        <v>0.6033611700312704</v>
+        <v>0.4677505770609061</v>
       </c>
       <c r="J5">
-        <v>0.6033611700312705</v>
+        <v>0.4677505770609062</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.3259243333333333</v>
+        <v>0.1169016666666667</v>
       </c>
       <c r="N5">
-        <v>0.977773</v>
+        <v>0.350705</v>
       </c>
       <c r="O5">
-        <v>0.5355620736212784</v>
+        <v>0.5660238801537781</v>
       </c>
       <c r="P5">
-        <v>0.5355620736212785</v>
+        <v>0.5660238801537781</v>
       </c>
       <c r="Q5">
-        <v>42.787817766586</v>
+        <v>15.34701983981</v>
       </c>
       <c r="R5">
-        <v>385.090359899274</v>
+        <v>138.12317855829</v>
       </c>
       <c r="S5">
-        <v>0.3231373593645079</v>
+        <v>0.2647579965721829</v>
       </c>
       <c r="T5">
-        <v>0.323137359364508</v>
+        <v>0.264757996572183</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>16.845377</v>
+        <v>67.370907</v>
       </c>
       <c r="H6">
-        <v>50.536131</v>
+        <v>202.112721</v>
       </c>
       <c r="I6">
-        <v>0.0774202805195934</v>
+        <v>0.2400398653924534</v>
       </c>
       <c r="J6">
-        <v>0.0774202805195934</v>
+        <v>0.2400398653924535</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,28 +806,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.2826406666666667</v>
+        <v>0.08962966666666666</v>
       </c>
       <c r="N6">
-        <v>0.8479220000000001</v>
+        <v>0.268889</v>
       </c>
       <c r="O6">
-        <v>0.4644379263787216</v>
+        <v>0.4339761198462219</v>
       </c>
       <c r="P6">
-        <v>0.4644379263787216</v>
+        <v>0.4339761198462219</v>
       </c>
       <c r="Q6">
-        <v>4.761188585531333</v>
+        <v>6.038431937441</v>
       </c>
       <c r="R6">
-        <v>42.850697269782</v>
+        <v>54.345887436969</v>
       </c>
       <c r="S6">
-        <v>0.03595691454417889</v>
+        <v>0.1041715693914263</v>
       </c>
       <c r="T6">
-        <v>0.03595691454417889</v>
+        <v>0.1041715693914264</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>16.845377</v>
+        <v>67.370907</v>
       </c>
       <c r="H7">
-        <v>50.536131</v>
+        <v>202.112721</v>
       </c>
       <c r="I7">
-        <v>0.0774202805195934</v>
+        <v>0.2400398653924534</v>
       </c>
       <c r="J7">
-        <v>0.0774202805195934</v>
+        <v>0.2400398653924535</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,28 +868,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.3259243333333333</v>
+        <v>0.1169016666666667</v>
       </c>
       <c r="N7">
-        <v>0.977773</v>
+        <v>0.350705</v>
       </c>
       <c r="O7">
-        <v>0.5355620736212784</v>
+        <v>0.5660238801537781</v>
       </c>
       <c r="P7">
-        <v>0.5355620736212785</v>
+        <v>0.5660238801537781</v>
       </c>
       <c r="Q7">
-        <v>5.490318268473666</v>
+        <v>7.875771313145</v>
       </c>
       <c r="R7">
-        <v>49.412864416263</v>
+        <v>70.88194181830501</v>
       </c>
       <c r="S7">
-        <v>0.04146336597541451</v>
+        <v>0.1358682960010271</v>
       </c>
       <c r="T7">
-        <v>0.04146336597541452</v>
+        <v>0.1358682960010271</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.67208</v>
+        <v>8.783890333333334</v>
       </c>
       <c r="H8">
-        <v>14.01624</v>
+        <v>26.351671</v>
       </c>
       <c r="I8">
-        <v>0.0214725823120481</v>
+        <v>0.03129665232554173</v>
       </c>
       <c r="J8">
-        <v>0.0214725823120481</v>
+        <v>0.03129665232554174</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -930,28 +930,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.2826406666666667</v>
+        <v>0.08962966666666666</v>
       </c>
       <c r="N8">
-        <v>0.8479220000000001</v>
+        <v>0.268889</v>
       </c>
       <c r="O8">
-        <v>0.4644379263787216</v>
+        <v>0.4339761198462219</v>
       </c>
       <c r="P8">
-        <v>0.4644379263787216</v>
+        <v>0.4339761198462219</v>
       </c>
       <c r="Q8">
-        <v>1.32051980592</v>
+        <v>0.7872971626132222</v>
       </c>
       <c r="R8">
-        <v>11.88467825328</v>
+        <v>7.085674463518999</v>
       </c>
       <c r="S8">
-        <v>0.009972681603004036</v>
+        <v>0.01358199974041484</v>
       </c>
       <c r="T8">
-        <v>0.009972681603004036</v>
+        <v>0.01358199974041484</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.67208</v>
+        <v>8.783890333333334</v>
       </c>
       <c r="H9">
-        <v>14.01624</v>
+        <v>26.351671</v>
       </c>
       <c r="I9">
-        <v>0.0214725823120481</v>
+        <v>0.03129665232554173</v>
       </c>
       <c r="J9">
-        <v>0.0214725823120481</v>
+        <v>0.03129665232554174</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,28 +992,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.3259243333333333</v>
+        <v>0.1169016666666667</v>
       </c>
       <c r="N9">
-        <v>0.977773</v>
+        <v>0.350705</v>
       </c>
       <c r="O9">
-        <v>0.5355620736212784</v>
+        <v>0.5660238801537781</v>
       </c>
       <c r="P9">
-        <v>0.5355620736212785</v>
+        <v>0.5660238801537781</v>
       </c>
       <c r="Q9">
-        <v>1.52274455928</v>
+        <v>1.026851419783889</v>
       </c>
       <c r="R9">
-        <v>13.70470103352</v>
+        <v>9.241662778055</v>
       </c>
       <c r="S9">
-        <v>0.01149990070904407</v>
+        <v>0.0177146525851269</v>
       </c>
       <c r="T9">
-        <v>0.01149990070904407</v>
+        <v>0.0177146525851269</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>35.71501900000001</v>
+        <v>51.550662</v>
       </c>
       <c r="H10">
-        <v>107.145057</v>
+        <v>154.651986</v>
       </c>
       <c r="I10">
-        <v>0.1641439541390263</v>
+        <v>0.1836729609024243</v>
       </c>
       <c r="J10">
-        <v>0.1641439541390263</v>
+        <v>0.1836729609024243</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.2826406666666667</v>
+        <v>0.08962966666666666</v>
       </c>
       <c r="N10">
-        <v>0.8479220000000001</v>
+        <v>0.268889</v>
       </c>
       <c r="O10">
-        <v>0.4644379263787216</v>
+        <v>0.4339761198462219</v>
       </c>
       <c r="P10">
-        <v>0.4644379263787216</v>
+        <v>0.4339761198462219</v>
       </c>
       <c r="Q10">
-        <v>10.09451678017267</v>
+        <v>4.620468651505999</v>
       </c>
       <c r="R10">
-        <v>90.85065102155401</v>
+        <v>41.584217863554</v>
       </c>
       <c r="S10">
-        <v>0.07623467768793335</v>
+        <v>0.0797096788931009</v>
       </c>
       <c r="T10">
-        <v>0.07623467768793335</v>
+        <v>0.0797096788931009</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>35.71501900000001</v>
+        <v>51.550662</v>
       </c>
       <c r="H11">
-        <v>107.145057</v>
+        <v>154.651986</v>
       </c>
       <c r="I11">
-        <v>0.1641439541390263</v>
+        <v>0.1836729609024243</v>
       </c>
       <c r="J11">
-        <v>0.1641439541390263</v>
+        <v>0.1836729609024243</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1116,28 +1116,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.3259243333333333</v>
+        <v>0.1169016666666667</v>
       </c>
       <c r="N11">
-        <v>0.977773</v>
+        <v>0.350705</v>
       </c>
       <c r="O11">
-        <v>0.5355620736212784</v>
+        <v>0.5660238801537781</v>
       </c>
       <c r="P11">
-        <v>0.5355620736212785</v>
+        <v>0.5660238801537781</v>
       </c>
       <c r="Q11">
-        <v>11.64039375756233</v>
+        <v>6.02635830557</v>
       </c>
       <c r="R11">
-        <v>104.763543818061</v>
+        <v>54.23722475013</v>
       </c>
       <c r="S11">
-        <v>0.08790927645109295</v>
+        <v>0.1039632820093234</v>
       </c>
       <c r="T11">
-        <v>0.08790927645109296</v>
+        <v>0.1039632820093234</v>
       </c>
     </row>
   </sheetData>
